--- a/table 3.xlsx
+++ b/table 3.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="110" documentId="8_{62B7A81E-8436-4CAD-88A4-76174AC14C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A965EECD-AA66-41BA-A73D-787CE83DD0E2}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="3636" windowWidth="11448" windowHeight="8964" xr2:uid="{DE0AA436-2B48-4E6A-802B-9A1406E9F99F}"/>
+    <workbookView xWindow="9384" yWindow="1104" windowWidth="13140" windowHeight="8964" xr2:uid="{DE0AA436-2B48-4E6A-802B-9A1406E9F99F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
